--- a/biology/Botanique/Nutrition_végétale/Nutrition_végétale.xlsx
+++ b/biology/Botanique/Nutrition_végétale/Nutrition_végétale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nutrition_v%C3%A9g%C3%A9tale</t>
+          <t>Nutrition_végétale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nutrition végétale est l'ensemble des processus qui permettent aux végétaux d'absorber dans le milieu et d'assimiler les éléments nutritifs nécessaires à leur différentes fonctions physiologiques : croissance, développement, reproduction...
 Le principal élément nutritif intervenant dans la nutrition végétale est le carbone, tiré du dioxyde de carbone de l'air par les plantes autotrophes grâce au processus de la photosynthèse. Les plantes non chlorophylliennes, dites allotrophes ou hétérotrophes dépendent des organismes autotrophes pour leur nutrition carbonée.
@@ -504,7 +516,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nutrition_v%C3%A9g%C3%A9tale</t>
+          <t>Nutrition_végétale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -522,7 +534,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les éléments absorbés ou synthétisés par la plante sont ensuite distribués par deux types de faisceaux constitués de vaisseaux situés dans les branches, les tiges et les nervures des feuilles :
 le xylème chez les angiospermes (ou le trachéide chez les gymnospermes), appelé bois, conduit la sève brute (dite montante), fortement concentrée en sels minéraux, depuis les racines jusqu'aux parties aériennes de la plante (feuilles, fleurs, fruits). Le moteur de cette circulation montante semble avoir trois causes distinctes :
@@ -541,7 +555,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nutrition_v%C3%A9g%C3%A9tale</t>
+          <t>Nutrition_végétale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -559,14 +573,86 @@
           <t>Éléments nutritifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les éléments nutritifs indispensables à la vie d'une plante peuvent être répartis en deux catégories : les macronutriments et les micronutriments.
-Macronutriments
-Les macronutriments sont caractérisés par leurs concentrations supérieur à 0,1 % de la matière sèche. On y retrouve les principaux éléments nutritifs nécessaires à la nutrition des plantes, qui sont le carbone, l'hydrogène, l'oxygène et l'azote. Ces quatre éléments qui constituent la matière organique représentent plus de 90 % en moyenne de la matière sèche végétale, auxquels on ajoute les éléments utilisés comme engrais et amendements qui sont: le potassium, le calcium, le magnésium, le phosphore, ainsi que le soufre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nutrition_végétale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nutrition_v%C3%A9g%C3%A9tale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Éléments nutritifs</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Macronutriments</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les macronutriments sont caractérisés par leurs concentrations supérieur à 0,1 % de la matière sèche. On y retrouve les principaux éléments nutritifs nécessaires à la nutrition des plantes, qui sont le carbone, l'hydrogène, l'oxygène et l'azote. Ces quatre éléments qui constituent la matière organique représentent plus de 90 % en moyenne de la matière sèche végétale, auxquels on ajoute les éléments utilisés comme engrais et amendements qui sont: le potassium, le calcium, le magnésium, le phosphore, ainsi que le soufre.
 Les trois premiers macronutriments sont puisés dans l'air et dans l'eau. L'azote, bien que représentant 78 % de l'air atmosphérique, ne peut pas être utilisé directement par les plantes qui ne peuvent, à l'exception de certaines bactéries et algues, l'assimiler que sous forme minérale, principalement sous forme d'ions nitrate (NO3-). Cela explique l'importance de la nutrition azotée en nutrition végétale et son ajout comme engrais par les producteurs.
-Micronutriments
-Les micronutriments appelés aussi oligo-éléments ne dépassent pas les 0,01 % de la matière sèche. Ce sont le chlore, le fer, le bore, le manganèse, le zinc,le cuivre, le nickel, le molybdène, etc. Le défaut de certains de ces éléments peut déterminer des maladies de carence.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nutrition_végétale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nutrition_v%C3%A9g%C3%A9tale</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Éléments nutritifs</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Micronutriments</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les micronutriments appelés aussi oligo-éléments ne dépassent pas les 0,01 % de la matière sèche. Ce sont le chlore, le fer, le bore, le manganèse, le zinc,le cuivre, le nickel, le molybdène, etc. Le défaut de certains de ces éléments peut déterminer des maladies de carence.
 </t>
         </is>
       </c>
